--- a/Post/Index/data/Sample - Features Engineering Humidity.xlsx
+++ b/Post/Index/data/Sample - Features Engineering Humidity.xlsx
@@ -488,28 +488,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45605.24791666667</v>
+        <v>45689.96666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>87.89999999999999</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
@@ -517,28 +517,28 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45614.86527777778</v>
+        <v>45691.35277777778</v>
       </c>
       <c r="B3" t="n">
-        <v>97.37</v>
+        <v>69.61</v>
       </c>
       <c r="C3" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -546,213 +546,213 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45616.73611111111</v>
+        <v>45695.38680555556</v>
       </c>
       <c r="B4" t="n">
-        <v>99.39</v>
+        <v>99.2</v>
       </c>
       <c r="C4" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
         <v>17</v>
       </c>
-      <c r="G4" t="n">
-        <v>40</v>
-      </c>
       <c r="H4" t="n">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45628.55763888889</v>
+        <v>45695.80972222222</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>77.41</v>
       </c>
       <c r="C5" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45635.53541666667</v>
+        <v>45697.19375</v>
       </c>
       <c r="B6" t="n">
-        <v>98.73</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H6" t="n">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45647.38958333333</v>
+        <v>45698.33819444444</v>
       </c>
       <c r="B7" t="n">
-        <v>95.56</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45666.65138888889</v>
+        <v>45698.78472222222</v>
       </c>
       <c r="B8" t="n">
-        <v>99.29000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="C8" t="n">
         <v>2025</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45682.08472222222</v>
+        <v>45699.42291666667</v>
       </c>
       <c r="B9" t="n">
-        <v>93.63</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>2025</v>
       </c>
       <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>42</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45685.61111111111</v>
+        <v>45703.22569444445</v>
       </c>
       <c r="B10" t="n">
-        <v>99.27</v>
+        <v>95.41</v>
       </c>
       <c r="C10" t="n">
         <v>2025</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45696.00972222222</v>
+        <v>45708.31319444445</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>97.06</v>
       </c>
       <c r="C11" t="n">
         <v>2025</v>
@@ -761,19 +761,19 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H11" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Sample - Features Engineering Humidity.xlsx
+++ b/Post/Index/data/Sample - Features Engineering Humidity.xlsx
@@ -488,10 +488,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45689.96666666667</v>
+        <v>45690.19166666667</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>77.18000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>2025</v>
@@ -500,27 +500,27 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45691.35277777778</v>
+        <v>45690.61666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>69.61</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>2025</v>
@@ -529,27 +529,27 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45695.38680555556</v>
+        <v>45692.25</v>
       </c>
       <c r="B4" t="n">
-        <v>99.2</v>
+        <v>78.67</v>
       </c>
       <c r="C4" t="n">
         <v>2025</v>
@@ -558,27 +558,27 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45695.80972222222</v>
+        <v>45699.47013888889</v>
       </c>
       <c r="B5" t="n">
-        <v>77.41</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>2025</v>
@@ -587,27 +587,27 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45697.19375</v>
+        <v>45706.7375</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>99.69</v>
       </c>
       <c r="C6" t="n">
         <v>2025</v>
@@ -616,24 +616,24 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45698.33819444444</v>
+        <v>45711.68611111111</v>
       </c>
       <c r="B7" t="n">
         <v>100</v>
@@ -645,27 +645,27 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45698.78472222222</v>
+        <v>45712.60972222222</v>
       </c>
       <c r="B8" t="n">
-        <v>82.2</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
         <v>2025</v>
@@ -674,16 +674,16 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45699.42291666667</v>
+        <v>45713.25763888889</v>
       </c>
       <c r="B9" t="n">
-        <v>96.84999999999999</v>
+        <v>72.45</v>
       </c>
       <c r="C9" t="n">
         <v>2025</v>
@@ -703,16 +703,16 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
         <v>11</v>
       </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
       <c r="H9" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -720,60 +720,60 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45703.22569444445</v>
+        <v>45719.37152777778</v>
       </c>
       <c r="B10" t="n">
-        <v>95.41</v>
+        <v>74.13</v>
       </c>
       <c r="C10" t="n">
         <v>2025</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H10" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45708.31319444445</v>
+        <v>45719.6375</v>
       </c>
       <c r="B11" t="n">
-        <v>97.06</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>2025</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H11" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Sample - Features Engineering Humidity.xlsx
+++ b/Post/Index/data/Sample - Features Engineering Humidity.xlsx
@@ -488,10 +488,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45690.19166666667</v>
+        <v>45701.35902777778</v>
       </c>
       <c r="B2" t="n">
-        <v>77.18000000000001</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
         <v>2025</v>
@@ -500,27 +500,27 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45690.61666666667</v>
+        <v>45702.72986111111</v>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>96.31</v>
       </c>
       <c r="C3" t="n">
         <v>2025</v>
@@ -529,27 +529,27 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45692.25</v>
+        <v>45711.00486111111</v>
       </c>
       <c r="B4" t="n">
-        <v>78.67</v>
+        <v>96.98</v>
       </c>
       <c r="C4" t="n">
         <v>2025</v>
@@ -558,27 +558,27 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54</v>
+      </c>
+      <c r="I4" t="n">
         <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>35</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45699.47013888889</v>
+        <v>45711.6625</v>
       </c>
       <c r="B5" t="n">
-        <v>98.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>2025</v>
@@ -587,27 +587,27 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45706.7375</v>
+        <v>45711.96180555555</v>
       </c>
       <c r="B6" t="n">
-        <v>99.69</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
         <v>2025</v>
@@ -616,27 +616,27 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45711.68611111111</v>
+        <v>45713.64097222222</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>99.63</v>
       </c>
       <c r="C7" t="n">
         <v>2025</v>
@@ -645,27 +645,27 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
         <v>23</v>
       </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>28</v>
-      </c>
       <c r="H7" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45712.60972222222</v>
+        <v>45714.91527777778</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>96.83</v>
       </c>
       <c r="C8" t="n">
         <v>2025</v>
@@ -674,56 +674,56 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H8" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45713.25763888889</v>
+        <v>45721.53680555556</v>
       </c>
       <c r="B9" t="n">
-        <v>72.45</v>
+        <v>98.31</v>
       </c>
       <c r="C9" t="n">
         <v>2025</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H9" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45719.37152777778</v>
+        <v>45721.56458333333</v>
       </c>
       <c r="B10" t="n">
-        <v>74.13</v>
+        <v>98.81</v>
       </c>
       <c r="C10" t="n">
         <v>2025</v>
@@ -732,27 +732,27 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45719.6375</v>
+        <v>45721.89652777778</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>2025</v>
@@ -761,19 +761,19 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H11" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
